--- a/exposan/bwaise/results/sysA.xlsx
+++ b/exposan/bwaise/results/sysA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="162">
   <si>
     <t>Unit operation</t>
   </si>
@@ -39,6 +39,9 @@
     <t>A7</t>
   </si>
   <si>
+    <t>A4</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
@@ -57,6 +60,9 @@
     <t>Facultative lagoon</t>
   </si>
   <si>
+    <t>Lumped WWTP cost</t>
+  </si>
+  <si>
     <t>Pit latrine</t>
   </si>
   <si>
@@ -120,123 +126,123 @@
     <t>Cumulative NPV [MM$]</t>
   </si>
   <si>
+    <t>A2_N2O</t>
+  </si>
+  <si>
+    <t>A6_CH4</t>
+  </si>
+  <si>
+    <t>evaporated</t>
+  </si>
+  <si>
+    <t>A_CH4</t>
+  </si>
+  <si>
+    <t>A_sol_P</t>
+  </si>
+  <si>
+    <t>mixed_waste</t>
+  </si>
+  <si>
+    <t>A5_CH4</t>
+  </si>
+  <si>
+    <t>ws1</t>
+  </si>
+  <si>
+    <t>A_liq_non_fertilizers</t>
+  </si>
+  <si>
+    <t>A_liq_N</t>
+  </si>
+  <si>
+    <t>flushing_water</t>
+  </si>
+  <si>
+    <t>A5_N2O</t>
+  </si>
+  <si>
+    <t>facultative_treated</t>
+  </si>
+  <si>
+    <t>conveyance_loss</t>
+  </si>
+  <si>
+    <t>liq</t>
+  </si>
+  <si>
+    <t>A6_N2O</t>
+  </si>
+  <si>
+    <t>A8_CH4</t>
+  </si>
+  <si>
+    <t>feces</t>
+  </si>
+  <si>
     <t>A_liq_K</t>
   </si>
   <si>
+    <t>leachate</t>
+  </si>
+  <si>
+    <t>A_sol_N</t>
+  </si>
+  <si>
+    <t>cleansing_water</t>
+  </si>
+  <si>
+    <t>liquid_fertilizer</t>
+  </si>
+  <si>
+    <t>A7_CH4</t>
+  </si>
+  <si>
+    <t>A_sol_non_fertilizers</t>
+  </si>
+  <si>
+    <t>sol</t>
+  </si>
+  <si>
+    <t>A8_N2O</t>
+  </si>
+  <si>
+    <t>A_sol_K</t>
+  </si>
+  <si>
+    <t>A2_CH4</t>
+  </si>
+  <si>
     <t>A7_N2O</t>
   </si>
   <si>
+    <t>anaerobic_treated</t>
+  </si>
+  <si>
+    <t>dried_sludge</t>
+  </si>
+  <si>
+    <t>A_liq_P</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>desiccant</t>
+  </si>
+  <si>
+    <t>reuse_loss</t>
+  </si>
+  <si>
+    <t>A_N2O</t>
+  </si>
+  <si>
+    <t>toilet_paper</t>
+  </si>
+  <si>
     <t>transported</t>
   </si>
   <si>
-    <t>desiccant</t>
-  </si>
-  <si>
-    <t>anaerobic_treated</t>
-  </si>
-  <si>
-    <t>A_N2O</t>
-  </si>
-  <si>
-    <t>A_sol_non_fertilizers</t>
-  </si>
-  <si>
-    <t>dried_sludge</t>
-  </si>
-  <si>
-    <t>A_sol_K</t>
-  </si>
-  <si>
-    <t>conveyance_loss</t>
-  </si>
-  <si>
-    <t>mixed_waste</t>
-  </si>
-  <si>
-    <t>A6_CH4</t>
-  </si>
-  <si>
-    <t>A_liq_N</t>
-  </si>
-  <si>
-    <t>A_liq_non_fertilizers</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>ws1</t>
-  </si>
-  <si>
-    <t>evaporated</t>
-  </si>
-  <si>
-    <t>leachate</t>
-  </si>
-  <si>
-    <t>A6_N2O</t>
-  </si>
-  <si>
-    <t>A_sol_N</t>
-  </si>
-  <si>
-    <t>feces</t>
-  </si>
-  <si>
-    <t>liq</t>
-  </si>
-  <si>
-    <t>A8_CH4</t>
-  </si>
-  <si>
-    <t>A2_CH4</t>
-  </si>
-  <si>
-    <t>facultative_treated</t>
-  </si>
-  <si>
-    <t>A_liq_P</t>
-  </si>
-  <si>
-    <t>toilet_paper</t>
-  </si>
-  <si>
-    <t>sol</t>
-  </si>
-  <si>
-    <t>A8_N2O</t>
-  </si>
-  <si>
-    <t>A2_N2O</t>
-  </si>
-  <si>
-    <t>A7_CH4</t>
-  </si>
-  <si>
-    <t>A_sol_P</t>
-  </si>
-  <si>
-    <t>flushing_water</t>
-  </si>
-  <si>
-    <t>A5_CH4</t>
-  </si>
-  <si>
-    <t>liquid_fertilizer</t>
-  </si>
-  <si>
-    <t>cleansing_water</t>
-  </si>
-  <si>
-    <t>reuse_loss</t>
-  </si>
-  <si>
-    <t>A5_N2O</t>
-  </si>
-  <si>
-    <t>A_CH4</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -309,36 +315,33 @@
     <t>HAP</t>
   </si>
   <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
     <t>A13</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>liquid</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>A10</t>
+    <t>A9</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
-    <t>A9</t>
-  </si>
-  <si>
     <t>Unit Operation</t>
   </si>
   <si>
@@ -396,6 +399,12 @@
     <t>Purchase cost</t>
   </si>
   <si>
+    <t>Lumped WWTP</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
     <t>Number of users per toilet</t>
   </si>
   <si>
@@ -432,9 +441,6 @@
     <t>Wood</t>
   </si>
   <si>
-    <t>Single toilet</t>
-  </si>
-  <si>
     <t>Total toilets</t>
   </si>
   <si>
@@ -444,9 +450,6 @@
     <t>m2</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
     <t>Tank number</t>
   </si>
   <si>
@@ -466,6 +469,9 @@
   </si>
   <si>
     <t>Concrete</t>
+  </si>
+  <si>
+    <t>Total fee</t>
   </si>
   <si>
     <t>Parallel trucks</t>
@@ -912,7 +918,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -937,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -954,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -971,16 +977,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>12.8156666875</v>
+        <v>18.6067</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.009710400000000001</v>
       </c>
       <c r="E4">
-        <v>12.8156666875</v>
+        <v>18.6067</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -988,16 +994,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>12.8152176875</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>12.8152176875</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1005,7 +1011,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1022,7 +1028,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1031,6 +1037,23 @@
         <v>0</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0</v>
       </c>
     </row>
@@ -1049,55 +1072,55 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1105,10 +1128,10 @@
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>12.8156666875</v>
+        <v>31.4219176875</v>
       </c>
       <c r="C2">
-        <v>12.8156666875</v>
+        <v>31.4219176875</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1144,16 +1167,16 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-12.8156666875</v>
+        <v>-31.4219176875</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>-12.8156666875</v>
+        <v>-31.4219176875</v>
       </c>
       <c r="R2">
-        <v>-12.8156666875</v>
+        <v>-31.4219176875</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1170,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.83135876964375</v>
+        <v>4.490192037543751</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1185,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.844249597010434</v>
+        <v>1.844584819260416</v>
       </c>
       <c r="K3">
         <v>0.3227926591805353</v>
@@ -1197,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-3.352815707473649</v>
+        <v>-6.011984197623631</v>
       </c>
       <c r="O3">
-        <v>-1.521456937829899</v>
+        <v>-1.521792160079881</v>
       </c>
       <c r="P3">
         <v>0.9523809523809523</v>
       </c>
       <c r="Q3">
-        <v>-1.449006607457046</v>
+        <v>-1.449325866742743</v>
       </c>
       <c r="R3">
-        <v>-14.26467329495705</v>
+        <v>-32.87124355424275</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1226,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3.13855677176875</v>
+        <v>7.69522764166875</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1241,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.844249597010434</v>
+        <v>1.844584819260416</v>
       </c>
       <c r="K4">
         <v>0.3227926591805353</v>
@@ -1253,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-4.660013709598649</v>
+        <v>-9.217019801748629</v>
       </c>
       <c r="O4">
-        <v>-1.521456937829899</v>
+        <v>-1.52179216007988</v>
       </c>
       <c r="P4">
         <v>0.9070294784580498</v>
       </c>
       <c r="Q4">
-        <v>-1.380006292816235</v>
+        <v>-1.380310349278802</v>
       </c>
       <c r="R4">
-        <v>-15.64467958777328</v>
+        <v>-34.25155390352155</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1282,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2.24146010364375</v>
+        <v>5.49569340354375</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1297,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1.844249597010434</v>
+        <v>1.844584819260416</v>
       </c>
       <c r="K5">
         <v>0.3227926591805353</v>
@@ -1309,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-3.762917041473648</v>
+        <v>-7.01748556362363</v>
       </c>
       <c r="O5">
-        <v>-1.521456937829899</v>
+        <v>-1.521792160079881</v>
       </c>
       <c r="P5">
         <v>0.863837598531476</v>
       </c>
       <c r="Q5">
-        <v>-1.314291707444033</v>
+        <v>-1.314581285027432</v>
       </c>
       <c r="R5">
-        <v>-16.95897129521731</v>
+        <v>-35.56613518854898</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1338,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.60067676926875</v>
+        <v>3.92459751916875</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1353,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.844249597010434</v>
+        <v>1.844584819260416</v>
       </c>
       <c r="K6">
         <v>0.3227926591805353</v>
@@ -1365,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>-3.122133707098649</v>
+        <v>-5.44638967924863</v>
       </c>
       <c r="O6">
-        <v>-1.521456937829899</v>
+        <v>-1.52179216007988</v>
       </c>
       <c r="P6">
         <v>0.8227024747918819</v>
       </c>
       <c r="Q6">
-        <v>-1.251706388041936</v>
+        <v>-1.251982176216601</v>
       </c>
       <c r="R6">
-        <v>-18.21067768325925</v>
+        <v>-36.81811736476558</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1394,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.14443903519375</v>
+        <v>2.80597724949375</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1409,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.844249597010434</v>
+        <v>1.844584819260416</v>
       </c>
       <c r="K7">
         <v>0.3227926591805353</v>
@@ -1421,19 +1444,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-2.665895973023649</v>
+        <v>-4.32776940957363</v>
       </c>
       <c r="O7">
-        <v>-1.521456937829899</v>
+        <v>-1.52179216007988</v>
       </c>
       <c r="P7">
         <v>0.7835261664684589</v>
       </c>
       <c r="Q7">
-        <v>-1.192101321944701</v>
+        <v>-1.192363977349144</v>
       </c>
       <c r="R7">
-        <v>-19.40277900520395</v>
+        <v>-38.01048134211472</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1450,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.143157468525</v>
+        <v>2.802835057725</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1465,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.844249597010434</v>
+        <v>1.844584819260416</v>
       </c>
       <c r="K8">
         <v>0.3227926591805353</v>
@@ -1477,19 +1500,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>-2.664614406354898</v>
+        <v>-4.324627217804881</v>
       </c>
       <c r="O8">
-        <v>-1.521456937829899</v>
+        <v>-1.521792160079881</v>
       </c>
       <c r="P8">
         <v>0.7462153966366274</v>
       </c>
       <c r="Q8">
-        <v>-1.135334592328286</v>
+        <v>-1.135584740332518</v>
       </c>
       <c r="R8">
-        <v>-20.53811359753224</v>
+        <v>-39.14606608244725</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1506,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.14443903519375</v>
+        <v>2.80597724949375</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1521,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.844249597010434</v>
+        <v>1.844584819260416</v>
       </c>
       <c r="K9">
         <v>0.3227926591805353</v>
@@ -1533,19 +1556,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>-2.665895973023649</v>
+        <v>-4.32776940957363</v>
       </c>
       <c r="O9">
-        <v>-1.521456937829899</v>
+        <v>-1.52179216007988</v>
       </c>
       <c r="P9">
         <v>0.7106813301301214</v>
       </c>
       <c r="Q9">
-        <v>-1.081271040312654</v>
+        <v>-1.08150927650716</v>
       </c>
       <c r="R9">
-        <v>-21.6193846378449</v>
+        <v>-40.2275753589544</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1562,7 +1585,7 @@
         <v>-0</v>
       </c>
       <c r="E10">
-        <v>0.5715787342624999</v>
+        <v>1.4014175288625</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1577,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.844249597010434</v>
+        <v>1.844584819260416</v>
       </c>
       <c r="K10">
         <v>0.3227926591805353</v>
@@ -1589,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>-2.093035672092399</v>
+        <v>-2.92320968894238</v>
       </c>
       <c r="O10">
-        <v>-1.521456937829899</v>
+        <v>-1.52179216007988</v>
       </c>
       <c r="P10">
         <v>0.676839362028687</v>
       </c>
       <c r="Q10">
-        <v>-1.029781943154908</v>
+        <v>-1.030008834768724</v>
       </c>
       <c r="R10">
-        <v>-22.6491665809998</v>
+        <v>-41.25758419372313</v>
       </c>
     </row>
   </sheetData>
@@ -1619,492 +1642,492 @@
   <sheetData>
     <row r="2" spans="1:40">
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:40">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="Q3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="R3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" t="s">
+        <v>106</v>
+      </c>
+      <c r="T3" t="s">
+        <v>104</v>
+      </c>
+      <c r="U3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" t="s">
         <v>102</v>
       </c>
-      <c r="I3" t="s">
+      <c r="W3" t="s">
+        <v>101</v>
+      </c>
+      <c r="X3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN3" t="s">
         <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>96</v>
-      </c>
-      <c r="O3" t="s">
-        <v>96</v>
-      </c>
-      <c r="P3" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>101</v>
-      </c>
-      <c r="R3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U3" t="s">
-        <v>102</v>
-      </c>
-      <c r="V3" t="s">
-        <v>104</v>
-      </c>
-      <c r="W3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:40">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
         <v>101</v>
       </c>
       <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O4" t="s">
+        <v>101</v>
+      </c>
+      <c r="P4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" t="s">
+        <v>101</v>
+      </c>
+      <c r="U4" t="s">
+        <v>101</v>
+      </c>
+      <c r="V4" t="s">
+        <v>101</v>
+      </c>
+      <c r="W4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN4" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" t="s">
-        <v>103</v>
-      </c>
-      <c r="N4" t="s">
-        <v>97</v>
-      </c>
-      <c r="O4" t="s">
-        <v>97</v>
-      </c>
-      <c r="P4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" t="s">
-        <v>97</v>
-      </c>
-      <c r="S4" t="s">
-        <v>97</v>
-      </c>
-      <c r="T4" t="s">
-        <v>99</v>
-      </c>
-      <c r="U4" t="s">
-        <v>97</v>
-      </c>
-      <c r="V4" t="s">
-        <v>6</v>
-      </c>
-      <c r="W4" t="s">
-        <v>4</v>
-      </c>
-      <c r="X4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:40">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="P5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="V5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="W5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="X5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Y5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AA5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AB5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AD5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AH5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AI5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AJ5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AL5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AN5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:40">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>298.15</v>
@@ -2226,134 +2249,134 @@
     </row>
     <row r="7" spans="1:40">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>18.65704309916056</v>
+      </c>
+      <c r="D7">
+        <v>652.6847782998941</v>
+      </c>
+      <c r="E7">
+        <v>70.0870600235134</v>
+      </c>
+      <c r="F7">
+        <v>3.049287990281032</v>
+      </c>
+      <c r="G7">
+        <v>14075.35273972603</v>
+      </c>
+      <c r="H7">
+        <v>4.973534897846051</v>
+      </c>
+      <c r="I7">
+        <v>13793.84568493152</v>
+      </c>
+      <c r="J7">
+        <v>11278.07439557711</v>
+      </c>
+      <c r="K7">
+        <v>46.07990612355569</v>
+      </c>
+      <c r="L7">
+        <v>0.4166666669999999</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>11360.19748558527</v>
+      </c>
+      <c r="O7">
+        <v>281.5070547945214</v>
+      </c>
+      <c r="P7">
+        <v>11801.0167884562</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>3.028903542442585</v>
+      </c>
+      <c r="S7">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="T7">
         <v>28.25077749748643</v>
       </c>
-      <c r="C7">
-        <v>0.03233962298548675</v>
-      </c>
-      <c r="D7">
+      <c r="U7">
+        <v>46151.37064015726</v>
+      </c>
+      <c r="V7">
+        <v>1.825957475111844</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>11357.33960903515</v>
+      </c>
+      <c r="Y7">
+        <v>1.399278232437042</v>
+      </c>
+      <c r="Z7">
+        <v>1117.691921899113</v>
+      </c>
+      <c r="AA7">
+        <v>1931.138395890413</v>
+      </c>
+      <c r="AB7">
+        <v>0.01021293548951343</v>
+      </c>
+      <c r="AC7">
+        <v>4.307531168981041</v>
+      </c>
+      <c r="AD7">
+        <v>42.02830025162717</v>
+      </c>
+      <c r="AE7">
+        <v>0.03233962298548676</v>
+      </c>
+      <c r="AF7">
+        <v>11468.72431455273</v>
+      </c>
+      <c r="AG7">
+        <v>1126.874698533487</v>
+      </c>
+      <c r="AH7">
+        <v>4.934529836990166</v>
+      </c>
+      <c r="AI7">
+        <v>0.05833333333333333</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>2.857876550125845</v>
+      </c>
+      <c r="AL7">
+        <v>0.04255255847500018</v>
+      </c>
+      <c r="AM7">
+        <v>0.000281583</v>
+      </c>
+      <c r="AN7">
         <v>13793.84568493152</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>11468.72431455273</v>
-      </c>
-      <c r="G7">
-        <v>0.04255255847500018</v>
-      </c>
-      <c r="H7">
-        <v>1117.691921899113</v>
-      </c>
-      <c r="I7">
-        <v>1126.874698533487</v>
-      </c>
-      <c r="J7">
-        <v>4.307531168981041</v>
-      </c>
-      <c r="K7">
-        <v>281.5070547945214</v>
-      </c>
-      <c r="L7">
-        <v>14075.35273972603</v>
-      </c>
-      <c r="M7">
-        <v>18.65788779024947</v>
-      </c>
-      <c r="N7">
-        <v>46.07990612355568</v>
-      </c>
-      <c r="O7">
-        <v>11278.07439557711</v>
-      </c>
-      <c r="P7">
-        <v>0.05833333333333333</v>
-      </c>
-      <c r="Q7">
-        <v>13793.84568493152</v>
-      </c>
-      <c r="R7">
-        <v>652.6847782998941</v>
-      </c>
-      <c r="S7">
-        <v>46151.37064015727</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>1.825957475111844</v>
-      </c>
-      <c r="V7">
-        <v>0.01041666666666667</v>
-      </c>
-      <c r="W7">
-        <v>11801.0167884562</v>
-      </c>
-      <c r="X7">
-        <v>3.028903542442584</v>
-      </c>
-      <c r="Y7">
-        <v>42.02830025162718</v>
-      </c>
-      <c r="Z7">
-        <v>11360.19748558527</v>
-      </c>
-      <c r="AA7">
-        <v>4.934529836990168</v>
-      </c>
-      <c r="AB7">
-        <v>0.000281583</v>
-      </c>
-      <c r="AC7">
-        <v>1931.138395890413</v>
-      </c>
-      <c r="AD7">
-        <v>0.01021293548951342</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>1.39934158426871</v>
-      </c>
-      <c r="AG7">
-        <v>3.049287990281033</v>
-      </c>
-      <c r="AH7">
-        <v>0.416666667</v>
-      </c>
-      <c r="AI7">
-        <v>4.973534897846049</v>
-      </c>
-      <c r="AJ7">
-        <v>11357.33960903515</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>2.857876550125845</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>70.08796806643399</v>
       </c>
     </row>
     <row r="8" spans="1:40">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:40">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2362,120 +2385,120 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1665958663793535</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2003708180227447</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.1665958663793536</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1665958663793536</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
+        <v>44.72460204116182</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.1909627165220051</v>
+      </c>
+      <c r="O9">
         <v>0.1665958663793533</v>
       </c>
-      <c r="L9">
-        <v>0.1665958663793535</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>44.7246020411618</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
       <c r="P9">
+        <v>0.1947287859832709</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.06574463999999999</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0.03670593194421815</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0.1814602305130159</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0.2003708180227448</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
         <v>0.3659002285714285</v>
       </c>
-      <c r="Q9">
-        <v>0.1665958663793535</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0.03670593194421814</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0.06574463999999999</v>
-      </c>
-      <c r="W9">
-        <v>0.1947287859832708</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0.190962716522005</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
       <c r="AJ9">
-        <v>0.1814602305130159</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>37.95430162961883</v>
       </c>
       <c r="AL9">
-        <v>37.95430162961883</v>
+        <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>0.1665958663793536</v>
       </c>
     </row>
     <row r="10" spans="1:40">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2484,120 +2507,120 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>0.2110829066666666</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.2110829066666666</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>55.27539795883818</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.2287870859421626</v>
+      </c>
+      <c r="O10">
+        <v>0.2110829066666669</v>
+      </c>
+      <c r="P10">
+        <v>0.220240893225146</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.26297856</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>100</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0.2242677631000092</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0.1618623313054371</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
         <v>0.2266221078447728</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
+      <c r="AG10">
         <v>0.162037312354971</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0.2110829066666669</v>
-      </c>
-      <c r="L10">
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0.06457062857142859</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>18.18879460234276</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
         <v>0.2110829066666666</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>55.2753979588382</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0.06457062857142859</v>
-      </c>
-      <c r="Q10">
-        <v>0.2110829066666666</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>100</v>
-      </c>
-      <c r="V10">
-        <v>0.26297856</v>
-      </c>
-      <c r="W10">
-        <v>0.220240893225146</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0.2287870859421626</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0.1618623313054371</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0.2242677631000092</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>18.18879460234276</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:40">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2606,242 +2629,242 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
         <v>0.1133648633333333</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.1133648633333332</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.04432347706921553</v>
+      </c>
+      <c r="O11">
+        <v>0.1133648633333339</v>
+      </c>
+      <c r="P11">
+        <v>0.1066695060646485</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.15953652</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0.007589476234595889</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0.04344793769365303</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0.157901059642857</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
         <v>0.1097601265284525</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
+      <c r="AG11">
         <v>0.2705968990384974</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0.1133648633333339</v>
-      </c>
-      <c r="L11">
-        <v>0.1133648633333333</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0.04455919285714286</v>
-      </c>
-      <c r="Q11">
-        <v>0.1133648633333333</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0.007589476234595888</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0.15953652</v>
-      </c>
-      <c r="W11">
-        <v>0.1066695060646485</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0.04432347706921555</v>
-      </c>
-      <c r="AA11">
+      <c r="AH11">
         <v>100</v>
       </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0.157901059642857</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>100</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.04455919285714285</v>
       </c>
       <c r="AJ11">
-        <v>0.04344793769365304</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>3.52375929416493</v>
       </c>
       <c r="AL11">
-        <v>3.52375929416493</v>
+        <v>0</v>
       </c>
       <c r="AM11">
         <v>0</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>0.1133648633333332</v>
       </c>
     </row>
     <row r="12" spans="1:40">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.2402147733333333</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0.2402147733333332</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.253757243336706</v>
+      </c>
+      <c r="O12">
+        <v>0.2402147733333323</v>
+      </c>
+      <c r="P12">
+        <v>0.2442783066390175</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.23392512</v>
+      </c>
+      <c r="T12">
         <v>100</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
+      <c r="U12">
+        <v>0.01947451275169619</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0.248744674985434</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0.2230565752380951</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>100</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0.2513559763612752</v>
+      </c>
+      <c r="AG12">
+        <v>0.3822546707798883</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0.1188905142857143</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>20.17394626493406</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
         <v>0.2402147733333332</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0.2513559763612752</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0.3822546707798883</v>
-      </c>
-      <c r="J12">
-        <v>100</v>
-      </c>
-      <c r="K12">
-        <v>0.2402147733333323</v>
-      </c>
-      <c r="L12">
-        <v>0.2402147733333333</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0.1188905142857143</v>
-      </c>
-      <c r="Q12">
-        <v>0.2402147733333332</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0.01947451275169619</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0.23392512</v>
-      </c>
-      <c r="W12">
-        <v>0.2442783066390175</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0.253757243336706</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0.2230565752380951</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0.248744674985434</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>20.17394626493406</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:40">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2850,120 +2873,120 @@
         <v>0</v>
       </c>
       <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.06083333333333331</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>0.0608333333333333</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="J13">
+        <v>0.05249894719724466</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.05318309314310952</v>
+      </c>
+      <c r="O13">
+        <v>0.06083333333333325</v>
+      </c>
+      <c r="P13">
+        <v>0.05119647330652067</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.1</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0.05213254622666868</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0.2102146100338443</v>
+      </c>
+      <c r="AA13">
+        <v>0.1216666666666666</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
         <v>0.05267982945874502</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0.2102146100338443</v>
-      </c>
-      <c r="I13">
+      <c r="AG13">
         <v>0.2085015945479744</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0.06083333333333325</v>
-      </c>
-      <c r="L13">
-        <v>0.06083333333333331</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0.05249894719724466</v>
-      </c>
-      <c r="P13">
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
         <v>0.01428571428571429</v>
       </c>
-      <c r="Q13">
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>4.228107340559537</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
         <v>0.0608333333333333</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0.1</v>
-      </c>
-      <c r="W13">
-        <v>0.05119647330652067</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0.05318309314310952</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0.1216666666666666</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0.05213254622666868</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>4.228107340559537</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:40">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2972,120 +2995,120 @@
         <v>0</v>
       </c>
       <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>0.2947037037037035</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0.2947037037037035</v>
+      </c>
+      <c r="J14">
+        <v>0.1978108479580132</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.200388642312062</v>
+      </c>
+      <c r="O14">
+        <v>0.2947037037037036</v>
+      </c>
+      <c r="P14">
+        <v>0.1929032549771618</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0.1964302852886331</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>1.600300428130661</v>
+      </c>
+      <c r="AA14">
+        <v>0.9262116402116389</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
         <v>0.1984923944544318</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>1.600300428130661</v>
-      </c>
-      <c r="I14">
+      <c r="AG14">
         <v>1.587259757860452</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0.2947037037037036</v>
-      </c>
-      <c r="L14">
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0.02</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>15.93109086837989</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
         <v>0.2947037037037035</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0.1978108479580132</v>
-      </c>
-      <c r="P14">
-        <v>0.02</v>
-      </c>
-      <c r="Q14">
-        <v>0.2947037037037035</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0.7599999999999999</v>
-      </c>
-      <c r="W14">
-        <v>0.1929032549771618</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0.200388642312062</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0.9262116402116389</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0.1964302852886331</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>15.93109086837989</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:40">
       <c r="A15" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3094,120 +3117,120 @@
         <v>0</v>
       </c>
       <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>91.11679328808579</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>91.11679328808579</v>
+      </c>
+      <c r="J15">
+        <v>98.25350226762684</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>97.54322577634407</v>
+      </c>
+      <c r="O15">
+        <v>91.11679328808579</v>
+      </c>
+      <c r="P15">
+        <v>93.89956205165797</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>85</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>99.93623007906949</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>97.56777082889739</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>74.68265472433458</v>
+      </c>
+      <c r="AA15">
+        <v>77.02227765647899</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
         <v>96.6201887680056</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>74.68265472433458</v>
-      </c>
-      <c r="I15">
+      <c r="AG15">
         <v>74.07407407407406</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>94.99999999999999</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
         <v>91.11679328808579</v>
-      </c>
-      <c r="L15">
-        <v>91.11679328808579</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>98.25350226762684</v>
-      </c>
-      <c r="P15">
-        <v>94.99999999999999</v>
-      </c>
-      <c r="Q15">
-        <v>91.11679328808579</v>
-      </c>
-      <c r="R15">
-        <v>100</v>
-      </c>
-      <c r="S15">
-        <v>99.93623007906947</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>85</v>
-      </c>
-      <c r="W15">
-        <v>93.89956205165797</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>97.54322577634407</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>77.02227765647899</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>100</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>97.56777082889739</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:40">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3216,231 +3239,231 @@
         <v>0</v>
       </c>
       <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>6.8828308651645</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>6.882830865164499</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="J16">
+        <v>0.3788174875850964</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.3760790085516915</v>
+      </c>
+      <c r="O16">
+        <v>6.882830865164502</v>
+      </c>
+      <c r="P16">
+        <v>4.022564687918848</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>13.41781515999999</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0.3761736422790019</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>23.50683023750091</v>
+      </c>
+      <c r="AA16">
+        <v>21.38702407045631</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
         <v>1.241734096473468</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>23.50683023750091</v>
-      </c>
-      <c r="I16">
+      <c r="AG16">
         <v>23.31527569134414</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>6.882830865164502</v>
-      </c>
-      <c r="L16">
-        <v>6.8828308651645</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0.3788174875850964</v>
-      </c>
-      <c r="P16">
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
         <v>4.371793721428576</v>
       </c>
-      <c r="Q16">
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
         <v>6.882830865164499</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>13.41781515999999</v>
-      </c>
-      <c r="W16">
-        <v>4.022564687918848</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0.3760790085516915</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>21.38702407045631</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0.3761736422790019</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:40">
       <c r="A17" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
         <v>100</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
         <v>100</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
         <v>100</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -3451,19 +3474,19 @@
     </row>
     <row r="18" spans="1:40">
       <c r="A18" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3472,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3487,23 +3510,23 @@
         <v>0</v>
       </c>
       <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>100</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
       <c r="S18">
         <v>0</v>
       </c>
@@ -3520,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>100</v>
@@ -3538,13 +3561,13 @@
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG18">
         <v>0</v>
@@ -3553,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
         <v>0</v>
@@ -3568,12 +3591,12 @@
         <v>0</v>
       </c>
       <c r="AN18">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:40">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3695,7 +3718,7 @@
     </row>
     <row r="20" spans="1:40">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3817,7 +3840,7 @@
     </row>
     <row r="21" spans="1:40">
       <c r="A21" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3939,7 +3962,7 @@
     </row>
     <row r="22" spans="1:40">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4061,7 +4084,7 @@
     </row>
     <row r="23" spans="1:40">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4070,120 +4093,120 @@
         <v>0</v>
       </c>
       <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0.9135803999999997</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>0.9135803999999996</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="J23">
+        <v>1.117370449632785</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1.109292956778979</v>
+      </c>
+      <c r="O23">
+        <v>0.9135803999999959</v>
+      </c>
+      <c r="P23">
+        <v>1.067856040227408</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>1.109572091016179</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
         <v>1.098795882850504</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0.9135803999999959</v>
-      </c>
-      <c r="L23">
-        <v>0.9135803999999997</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>1.117370449632785</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>100</v>
+      </c>
+      <c r="AN23">
         <v>0.9135803999999996</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>1.067856040227408</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>1.109292956778979</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>100</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>1.109572091016179</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:40">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4305,7 +4328,7 @@
     </row>
     <row r="25" spans="1:40">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4427,7 +4450,7 @@
     </row>
     <row r="26" spans="1:40">
       <c r="A26" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4554,7 +4577,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D2"/>
+  <dimension ref="A2:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4562,16 +4585,30 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>108</v>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>6.52054794520548</v>
+      </c>
+      <c r="D3">
+        <v>1.108493150684932</v>
       </c>
     </row>
   </sheetData>
@@ -4581,7 +4618,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D72"/>
+  <dimension ref="A2:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4589,11 +4626,11 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -4601,10 +4638,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -4613,10 +4650,10 @@
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D4">
         <v>4640</v>
@@ -4625,10 +4662,10 @@
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D5">
         <v>65</v>
@@ -4637,10 +4674,10 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -4649,10 +4686,10 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D7">
         <v>2.379487179487179</v>
@@ -4661,10 +4698,10 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D8">
         <v>4539.973846153845</v>
@@ -4673,10 +4710,10 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D9">
         <v>13920</v>
@@ -4684,11 +4721,11 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4696,11 +4733,11 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -4708,10 +4745,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -4720,10 +4757,10 @@
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D15">
         <v>11530</v>
@@ -4732,10 +4769,10 @@
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D16">
         <v>170</v>
@@ -4744,10 +4781,10 @@
     <row r="17" spans="1:4">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D17">
         <v>50</v>
@@ -4756,10 +4793,10 @@
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D18">
         <v>1.356470588235294</v>
@@ -4768,10 +4805,10 @@
     <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D19">
         <v>11462.02729411765</v>
@@ -4780,10 +4817,10 @@
     <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D20">
         <v>23060</v>
@@ -4791,11 +4828,11 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4803,11 +4840,11 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>6</v>
@@ -4815,417 +4852,401 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25">
+        <v>18606700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25">
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30">
         <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26">
-        <v>28541.6875</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28">
-        <v>3.656000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30">
-        <v>4.57</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D31">
-        <v>19979181.25</v>
+        <v>28541.6875</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D32">
-        <v>90545649.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D33">
-        <v>36533360</v>
+        <v>3.656000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="D34">
-        <v>6473254.725</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D35">
-        <v>287700.21</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D36">
-        <v>958287.1578125</v>
+        <v>19979181.25</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D37">
-        <v>5422.920625</v>
+        <v>90545649.425</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D38">
-        <v>104348.4095</v>
+        <v>36533360</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D39">
-        <v>449</v>
+        <v>6473254.725</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40">
+        <v>287700.21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C40" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40">
-        <v>12815217.6875</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="1"/>
       <c r="C41" t="s">
         <v>123</v>
       </c>
       <c r="D41">
-        <v>73.14621967751141</v>
+        <v>958287.1578125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42">
+        <v>5422.920625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43">
+        <v>104348.4095</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>7</v>
+        <v>125</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44">
+        <v>12815217.6875</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45">
+        <v>73.14621967751141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D45">
+      <c r="D48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49">
         <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" t="s">
-        <v>121</v>
-      </c>
-      <c r="D47">
-        <v>3.080328427584411</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C48" t="s">
-        <v>121</v>
-      </c>
-      <c r="D48">
-        <v>11.08918233930388</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C49" t="s">
-        <v>121</v>
-      </c>
-      <c r="D49">
-        <v>36.59430171970281</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="D50">
-        <v>863.6885623511567</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D51">
-        <v>433.0444991846079</v>
+        <v>3.080328427584411</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C52" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52">
+        <v>11.08918233930388</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53">
+        <v>36.59430171970281</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" t="s">
+        <v>142</v>
+      </c>
+      <c r="D54">
+        <v>863.6885623511567</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55">
+        <v>433.0444991846079</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D52">
+      <c r="C56" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56">
         <v>1451.211728244062</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" t="s">
-        <v>123</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D57">
-        <v>28541.6875</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" t="s">
-        <v>123</v>
-      </c>
-      <c r="D58">
-        <v>124.056159346881</v>
+      <c r="D60" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>9</v>
+        <v>112</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61">
+        <v>28541.6875</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62">
+        <v>122.985933576331</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D62">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C63" t="s">
-        <v>120</v>
-      </c>
-      <c r="D63">
-        <v>142.8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1" t="s">
+      <c r="D65" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="D64">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C65" t="s">
-        <v>120</v>
-      </c>
-      <c r="D65">
-        <v>130.2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="D66">
         <v>19</v>
@@ -5234,80 +5255,121 @@
     <row r="67" spans="1:4">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C67" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D67">
-        <v>357</v>
+        <v>142.8</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C69" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D69">
-        <v>259.1573099999999</v>
+        <v>130.2</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C70" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="D70">
-        <v>9624.423774272149</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C71" t="s">
         <v>121</v>
       </c>
       <c r="D71">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73">
+        <v>259.1573099999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74">
+        <v>9624.423774272149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" t="s">
+        <v>122</v>
+      </c>
+      <c r="D75">
         <v>1463</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" t="s">
-        <v>123</v>
-      </c>
-      <c r="D72">
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" t="s">
+        <v>124</v>
+      </c>
+      <c r="D76">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A25:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="A62:A71"/>
+    <mergeCell ref="A30:A43"/>
+    <mergeCell ref="A49:A56"/>
+    <mergeCell ref="A66:A75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exposan/bwaise/results/sysA.xlsx
+++ b/exposan/bwaise/results/sysA.xlsx
@@ -126,123 +126,123 @@
     <t>Cumulative NPV [MM$]</t>
   </si>
   <si>
+    <t>A2_CH4</t>
+  </si>
+  <si>
     <t>A2_N2O</t>
   </si>
   <si>
+    <t>A5_CH4</t>
+  </si>
+  <si>
+    <t>A5_N2O</t>
+  </si>
+  <si>
     <t>A6_CH4</t>
   </si>
   <si>
+    <t>A6_N2O</t>
+  </si>
+  <si>
+    <t>A7_CH4</t>
+  </si>
+  <si>
+    <t>A7_N2O</t>
+  </si>
+  <si>
+    <t>A8_CH4</t>
+  </si>
+  <si>
+    <t>A8_N2O</t>
+  </si>
+  <si>
+    <t>A_CH4</t>
+  </si>
+  <si>
+    <t>A_N2O</t>
+  </si>
+  <si>
+    <t>A_liq_K</t>
+  </si>
+  <si>
+    <t>A_liq_N</t>
+  </si>
+  <si>
+    <t>A_liq_P</t>
+  </si>
+  <si>
+    <t>A_liq_non_fertilizers</t>
+  </si>
+  <si>
+    <t>A_sol_K</t>
+  </si>
+  <si>
+    <t>A_sol_N</t>
+  </si>
+  <si>
+    <t>A_sol_P</t>
+  </si>
+  <si>
+    <t>A_sol_non_fertilizers</t>
+  </si>
+  <si>
+    <t>anaerobic_treated</t>
+  </si>
+  <si>
+    <t>cleansing_water</t>
+  </si>
+  <si>
+    <t>conveyance_loss</t>
+  </si>
+  <si>
+    <t>desiccant</t>
+  </si>
+  <si>
+    <t>dried_sludge</t>
+  </si>
+  <si>
     <t>evaporated</t>
   </si>
   <si>
-    <t>A_CH4</t>
-  </si>
-  <si>
-    <t>A_sol_P</t>
+    <t>facultative_treated</t>
+  </si>
+  <si>
+    <t>feces</t>
+  </si>
+  <si>
+    <t>flushing_water</t>
+  </si>
+  <si>
+    <t>leachate</t>
+  </si>
+  <si>
+    <t>liq</t>
+  </si>
+  <si>
+    <t>liquid_fertilizer</t>
   </si>
   <si>
     <t>mixed_waste</t>
   </si>
   <si>
-    <t>A5_CH4</t>
+    <t>reuse_loss</t>
+  </si>
+  <si>
+    <t>sol</t>
+  </si>
+  <si>
+    <t>toilet_paper</t>
+  </si>
+  <si>
+    <t>transported</t>
+  </si>
+  <si>
+    <t>urine</t>
   </si>
   <si>
     <t>ws1</t>
   </si>
   <si>
-    <t>A_liq_non_fertilizers</t>
-  </si>
-  <si>
-    <t>A_liq_N</t>
-  </si>
-  <si>
-    <t>flushing_water</t>
-  </si>
-  <si>
-    <t>A5_N2O</t>
-  </si>
-  <si>
-    <t>facultative_treated</t>
-  </si>
-  <si>
-    <t>conveyance_loss</t>
-  </si>
-  <si>
-    <t>liq</t>
-  </si>
-  <si>
-    <t>A6_N2O</t>
-  </si>
-  <si>
-    <t>A8_CH4</t>
-  </si>
-  <si>
-    <t>feces</t>
-  </si>
-  <si>
-    <t>A_liq_K</t>
-  </si>
-  <si>
-    <t>leachate</t>
-  </si>
-  <si>
-    <t>A_sol_N</t>
-  </si>
-  <si>
-    <t>cleansing_water</t>
-  </si>
-  <si>
-    <t>liquid_fertilizer</t>
-  </si>
-  <si>
-    <t>A7_CH4</t>
-  </si>
-  <si>
-    <t>A_sol_non_fertilizers</t>
-  </si>
-  <si>
-    <t>sol</t>
-  </si>
-  <si>
-    <t>A8_N2O</t>
-  </si>
-  <si>
-    <t>A_sol_K</t>
-  </si>
-  <si>
-    <t>A2_CH4</t>
-  </si>
-  <si>
-    <t>A7_N2O</t>
-  </si>
-  <si>
-    <t>anaerobic_treated</t>
-  </si>
-  <si>
-    <t>dried_sludge</t>
-  </si>
-  <si>
-    <t>A_liq_P</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>desiccant</t>
-  </si>
-  <si>
-    <t>reuse_loss</t>
-  </si>
-  <si>
-    <t>A_N2O</t>
-  </si>
-  <si>
-    <t>toilet_paper</t>
-  </si>
-  <si>
-    <t>transported</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -315,25 +315,25 @@
     <t>HAP</t>
   </si>
   <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
     <t>A11</t>
   </si>
   <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
     <t>A12</t>
-  </si>
-  <si>
-    <t>liquid</t>
-  </si>
-  <si>
-    <t>A13</t>
   </si>
   <si>
     <t>A9</t>
@@ -1211,7 +1211,7 @@
         <v>1.844584819260416</v>
       </c>
       <c r="K3">
-        <v>0.3227926591805353</v>
+        <v>0.3227926591805352</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>1.844584819260416</v>
       </c>
       <c r="K4">
-        <v>0.3227926591805353</v>
+        <v>0.3227926591805352</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>1.844584819260416</v>
       </c>
       <c r="K5">
-        <v>0.3227926591805353</v>
+        <v>0.3227926591805352</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>1.844584819260416</v>
       </c>
       <c r="K6">
-        <v>0.3227926591805353</v>
+        <v>0.3227926591805352</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>1.844584819260416</v>
       </c>
       <c r="K7">
-        <v>0.3227926591805353</v>
+        <v>0.3227926591805352</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>1.844584819260416</v>
       </c>
       <c r="K8">
-        <v>0.3227926591805353</v>
+        <v>0.3227926591805352</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>1.844584819260416</v>
       </c>
       <c r="K9">
-        <v>0.3227926591805353</v>
+        <v>0.3227926591805352</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>1.844584819260416</v>
       </c>
       <c r="K10">
-        <v>0.3227926591805353</v>
+        <v>0.3227926591805352</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1767,118 +1767,118 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" t="s">
         <v>100</v>
       </c>
-      <c r="F3" t="s">
+      <c r="N3" t="s">
         <v>102</v>
       </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
+        <v>102</v>
+      </c>
+      <c r="P3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R3" t="s">
         <v>104</v>
       </c>
-      <c r="K3" t="s">
+      <c r="S3" t="s">
         <v>104</v>
-      </c>
-      <c r="L3" t="s">
-        <v>101</v>
-      </c>
-      <c r="M3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" t="s">
-        <v>106</v>
       </c>
       <c r="T3" t="s">
         <v>104</v>
       </c>
       <c r="U3" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="V3" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="W3" t="s">
         <v>101</v>
       </c>
       <c r="X3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG3" t="s">
         <v>105</v>
       </c>
-      <c r="Y3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="AH3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="AK3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM3" t="s">
         <v>106</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>101</v>
-      </c>
       <c r="AN3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -1892,52 +1892,52 @@
         <v>100</v>
       </c>
       <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" t="s">
         <v>101</v>
       </c>
-      <c r="E4" t="s">
+      <c r="M4" t="s">
         <v>101</v>
       </c>
-      <c r="F4" t="s">
+      <c r="N4" t="s">
         <v>101</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" t="s">
-        <v>101</v>
-      </c>
-      <c r="L4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" t="s">
-        <v>98</v>
-      </c>
-      <c r="N4" t="s">
-        <v>105</v>
       </c>
       <c r="O4" t="s">
         <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="Q4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S4" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="T4" t="s">
         <v>101</v>
@@ -1946,61 +1946,61 @@
         <v>101</v>
       </c>
       <c r="V4" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="W4" t="s">
         <v>7</v>
       </c>
       <c r="X4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" t="s">
         <v>104</v>
       </c>
-      <c r="Y4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>101</v>
       </c>
-      <c r="AA4" t="s">
-        <v>10</v>
-      </c>
       <c r="AB4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AC4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="s">
         <v>101</v>
       </c>
-      <c r="AD4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>98</v>
-      </c>
       <c r="AF4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG4" t="s">
         <v>102</v>
       </c>
       <c r="AH4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI4" t="s">
         <v>101</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK4" t="s">
         <v>7</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>101</v>
-      </c>
       <c r="AL4" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="AM4" t="s">
         <v>7</v>
       </c>
       <c r="AN4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -2020,25 +2020,25 @@
         <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H5" t="s">
         <v>99</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s">
         <v>99</v>
@@ -2053,10 +2053,10 @@
         <v>103</v>
       </c>
       <c r="Q5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="R5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="S5" t="s">
         <v>103</v>
@@ -2077,25 +2077,25 @@
         <v>103</v>
       </c>
       <c r="Y5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Z5" t="s">
         <v>103</v>
       </c>
       <c r="AA5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB5" t="s">
         <v>103</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>99</v>
       </c>
       <c r="AC5" t="s">
         <v>103</v>
       </c>
       <c r="AD5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AE5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AF5" t="s">
         <v>103</v>
@@ -2116,7 +2116,7 @@
         <v>103</v>
       </c>
       <c r="AL5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AM5" t="s">
         <v>103</v>
@@ -2252,118 +2252,118 @@
         <v>78</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>42.02830025162717</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>4.973534897846051</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>18.65704309916056</v>
       </c>
-      <c r="D7">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1.399278232437042</v>
+      </c>
+      <c r="I7">
+        <v>0.03233962298548676</v>
+      </c>
+      <c r="J7">
+        <v>3.028903542442585</v>
+      </c>
+      <c r="K7">
+        <v>0.01021293548951343</v>
+      </c>
+      <c r="L7">
+        <v>70.0870600235134</v>
+      </c>
+      <c r="M7">
+        <v>0.04255255847500018</v>
+      </c>
+      <c r="N7">
+        <v>28.25077749748643</v>
+      </c>
+      <c r="O7">
+        <v>46.07990612355569</v>
+      </c>
+      <c r="P7">
+        <v>4.934529836990166</v>
+      </c>
+      <c r="Q7">
+        <v>11278.07439557711</v>
+      </c>
+      <c r="R7">
+        <v>4.307531168981041</v>
+      </c>
+      <c r="S7">
+        <v>1.825957475111844</v>
+      </c>
+      <c r="T7">
+        <v>3.049287990281032</v>
+      </c>
+      <c r="U7">
+        <v>1117.691921899113</v>
+      </c>
+      <c r="V7">
+        <v>11468.72431455273</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>281.5070547945214</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>1126.874698533487</v>
+      </c>
+      <c r="AA7">
         <v>652.6847782998941</v>
       </c>
-      <c r="E7">
-        <v>70.0870600235134</v>
-      </c>
-      <c r="F7">
-        <v>3.049287990281032</v>
-      </c>
-      <c r="G7">
+      <c r="AB7">
+        <v>11360.19748558527</v>
+      </c>
+      <c r="AC7">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="AD7">
+        <v>0.4166666669999999</v>
+      </c>
+      <c r="AE7">
+        <v>46151.37064015726</v>
+      </c>
+      <c r="AF7">
+        <v>11801.0167884562</v>
+      </c>
+      <c r="AG7">
+        <v>11357.33960903515</v>
+      </c>
+      <c r="AH7">
         <v>14075.35273972603</v>
       </c>
-      <c r="H7">
-        <v>4.973534897846051</v>
-      </c>
-      <c r="I7">
+      <c r="AI7">
+        <v>2.857876550125845</v>
+      </c>
+      <c r="AJ7">
+        <v>1931.138395890413</v>
+      </c>
+      <c r="AK7">
+        <v>0.000281583</v>
+      </c>
+      <c r="AL7">
         <v>13793.84568493152</v>
       </c>
-      <c r="J7">
-        <v>11278.07439557711</v>
-      </c>
-      <c r="K7">
-        <v>46.07990612355569</v>
-      </c>
-      <c r="L7">
-        <v>0.4166666669999999</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>11360.19748558527</v>
-      </c>
-      <c r="O7">
-        <v>281.5070547945214</v>
-      </c>
-      <c r="P7">
-        <v>11801.0167884562</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>3.028903542442585</v>
-      </c>
-      <c r="S7">
-        <v>0.01041666666666667</v>
-      </c>
-      <c r="T7">
-        <v>28.25077749748643</v>
-      </c>
-      <c r="U7">
-        <v>46151.37064015726</v>
-      </c>
-      <c r="V7">
-        <v>1.825957475111844</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>11357.33960903515</v>
-      </c>
-      <c r="Y7">
-        <v>1.399278232437042</v>
-      </c>
-      <c r="Z7">
-        <v>1117.691921899113</v>
-      </c>
-      <c r="AA7">
-        <v>1931.138395890413</v>
-      </c>
-      <c r="AB7">
-        <v>0.01021293548951343</v>
-      </c>
-      <c r="AC7">
-        <v>4.307531168981041</v>
-      </c>
-      <c r="AD7">
-        <v>42.02830025162717</v>
-      </c>
-      <c r="AE7">
-        <v>0.03233962298548676</v>
-      </c>
-      <c r="AF7">
-        <v>11468.72431455273</v>
-      </c>
-      <c r="AG7">
-        <v>1126.874698533487</v>
-      </c>
-      <c r="AH7">
-        <v>4.934529836990166</v>
-      </c>
-      <c r="AI7">
+      <c r="AM7">
         <v>0.05833333333333333</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>2.857876550125845</v>
-      </c>
-      <c r="AL7">
-        <v>0.04255255847500018</v>
-      </c>
-      <c r="AM7">
-        <v>0.000281583</v>
       </c>
       <c r="AN7">
         <v>13793.84568493152</v>
@@ -2394,103 +2394,103 @@
         <v>0</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>44.72460204116182</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0.2003708180227448</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0.1665958663793533</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0.1909627165220051</v>
+      </c>
+      <c r="AC9">
+        <v>0.06574463999999999</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0.03670593194421815</v>
+      </c>
+      <c r="AF9">
+        <v>0.1947287859832709</v>
+      </c>
+      <c r="AG9">
+        <v>0.1814602305130159</v>
+      </c>
+      <c r="AH9">
         <v>0.1665958663793536</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
+      <c r="AI9">
+        <v>37.95430162961883</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
         <v>0.1665958663793536</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>44.72460204116182</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0.1909627165220051</v>
-      </c>
-      <c r="O9">
-        <v>0.1665958663793533</v>
-      </c>
-      <c r="P9">
-        <v>0.1947287859832709</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0.06574463999999999</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0.03670593194421815</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0.1814602305130159</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0.2003708180227448</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
+      <c r="AM9">
         <v>0.3659002285714285</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>37.95430162961883</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
       </c>
       <c r="AN9">
         <v>0.1665958663793536</v>
@@ -2516,103 +2516,103 @@
         <v>0</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>55.27539795883818</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>100</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0.2266221078447728</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0.2110829066666669</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0.162037312354971</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0.2287870859421626</v>
+      </c>
+      <c r="AC10">
+        <v>0.26297856</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0.220240893225146</v>
+      </c>
+      <c r="AG10">
+        <v>0.2242677631000092</v>
+      </c>
+      <c r="AH10">
         <v>0.2110829066666666</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
+      <c r="AI10">
+        <v>18.18879460234276</v>
+      </c>
+      <c r="AJ10">
+        <v>0.1618623313054371</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
         <v>0.2110829066666666</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>55.27539795883818</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0.2287870859421626</v>
-      </c>
-      <c r="O10">
-        <v>0.2110829066666669</v>
-      </c>
-      <c r="P10">
-        <v>0.220240893225146</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0.26297856</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>100</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0.2242677631000092</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0.1618623313054371</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0.2266221078447728</v>
-      </c>
-      <c r="AG10">
-        <v>0.162037312354971</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
+      <c r="AM10">
         <v>0.06457062857142859</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>18.18879460234276</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
       </c>
       <c r="AN10">
         <v>0.2110829066666666</v>
@@ -2635,106 +2635,106 @@
         <v>0</v>
       </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
         <v>100</v>
       </c>
-      <c r="G11">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>100</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0.1097601265284525</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0.1133648633333339</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0.2705968990384974</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0.04432347706921553</v>
+      </c>
+      <c r="AC11">
+        <v>0.15953652</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0.007589476234595889</v>
+      </c>
+      <c r="AF11">
+        <v>0.1066695060646485</v>
+      </c>
+      <c r="AG11">
+        <v>0.04344793769365303</v>
+      </c>
+      <c r="AH11">
         <v>0.1133648633333333</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
+      <c r="AI11">
+        <v>3.52375929416493</v>
+      </c>
+      <c r="AJ11">
+        <v>0.157901059642857</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
         <v>0.1133648633333332</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0.04432347706921553</v>
-      </c>
-      <c r="O11">
-        <v>0.1133648633333339</v>
-      </c>
-      <c r="P11">
-        <v>0.1066695060646485</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0.15953652</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0.007589476234595889</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0.04344793769365303</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0.157901059642857</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0.1097601265284525</v>
-      </c>
-      <c r="AG11">
-        <v>0.2705968990384974</v>
-      </c>
-      <c r="AH11">
-        <v>100</v>
-      </c>
-      <c r="AI11">
+      <c r="AM11">
         <v>0.04455919285714285</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>3.52375929416493</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
       </c>
       <c r="AN11">
         <v>0.1133648633333332</v>
@@ -2760,103 +2760,103 @@
         <v>0</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>100</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>100</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0.2513559763612752</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0.2402147733333323</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0.3822546707798883</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0.253757243336706</v>
+      </c>
+      <c r="AC12">
+        <v>0.23392512</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0.01947451275169619</v>
+      </c>
+      <c r="AF12">
+        <v>0.2442783066390175</v>
+      </c>
+      <c r="AG12">
+        <v>0.248744674985434</v>
+      </c>
+      <c r="AH12">
         <v>0.2402147733333333</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
+      <c r="AI12">
+        <v>20.17394626493406</v>
+      </c>
+      <c r="AJ12">
+        <v>0.2230565752380951</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
         <v>0.2402147733333332</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0.253757243336706</v>
-      </c>
-      <c r="O12">
-        <v>0.2402147733333323</v>
-      </c>
-      <c r="P12">
-        <v>0.2442783066390175</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0.23392512</v>
-      </c>
-      <c r="T12">
-        <v>100</v>
-      </c>
-      <c r="U12">
-        <v>0.01947451275169619</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0.248744674985434</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0.2230565752380951</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>100</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0.2513559763612752</v>
-      </c>
-      <c r="AG12">
-        <v>0.3822546707798883</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
+      <c r="AM12">
         <v>0.1188905142857143</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>20.17394626493406</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
       </c>
       <c r="AN12">
         <v>0.2402147733333332</v>
@@ -2882,103 +2882,103 @@
         <v>0</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.05249894719724466</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0.2102146100338443</v>
+      </c>
+      <c r="V13">
+        <v>0.05267982945874502</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0.06083333333333325</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0.2085015945479744</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0.05318309314310952</v>
+      </c>
+      <c r="AC13">
+        <v>0.1</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0.05119647330652067</v>
+      </c>
+      <c r="AG13">
+        <v>0.05213254622666868</v>
+      </c>
+      <c r="AH13">
         <v>0.06083333333333331</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="AI13">
+        <v>4.228107340559537</v>
+      </c>
+      <c r="AJ13">
+        <v>0.1216666666666666</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
         <v>0.0608333333333333</v>
       </c>
-      <c r="J13">
-        <v>0.05249894719724466</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0.05318309314310952</v>
-      </c>
-      <c r="O13">
-        <v>0.06083333333333325</v>
-      </c>
-      <c r="P13">
-        <v>0.05119647330652067</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0.1</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0.05213254622666868</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0.2102146100338443</v>
-      </c>
-      <c r="AA13">
-        <v>0.1216666666666666</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0.05267982945874502</v>
-      </c>
-      <c r="AG13">
-        <v>0.2085015945479744</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
+      <c r="AM13">
         <v>0.01428571428571429</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>4.228107340559537</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
       </c>
       <c r="AN13">
         <v>0.0608333333333333</v>
@@ -3004,103 +3004,103 @@
         <v>0</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.1978108479580132</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>1.600300428130661</v>
+      </c>
+      <c r="V14">
+        <v>0.1984923944544318</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0.2947037037037036</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>1.587259757860452</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0.200388642312062</v>
+      </c>
+      <c r="AC14">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0.1929032549771618</v>
+      </c>
+      <c r="AG14">
+        <v>0.1964302852886331</v>
+      </c>
+      <c r="AH14">
         <v>0.2947037037037035</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
+      <c r="AI14">
+        <v>15.93109086837989</v>
+      </c>
+      <c r="AJ14">
+        <v>0.9262116402116389</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
         <v>0.2947037037037035</v>
       </c>
-      <c r="J14">
-        <v>0.1978108479580132</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0.200388642312062</v>
-      </c>
-      <c r="O14">
-        <v>0.2947037037037036</v>
-      </c>
-      <c r="P14">
-        <v>0.1929032549771618</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0.7599999999999999</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0.1964302852886331</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>1.600300428130661</v>
-      </c>
-      <c r="AA14">
-        <v>0.9262116402116389</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0.1984923944544318</v>
-      </c>
-      <c r="AG14">
-        <v>1.587259757860452</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
+      <c r="AM14">
         <v>0.02</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>15.93109086837989</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
       </c>
       <c r="AN14">
         <v>0.2947037037037035</v>
@@ -3117,112 +3117,112 @@
         <v>0</v>
       </c>
       <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>98.25350226762684</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>74.68265472433458</v>
+      </c>
+      <c r="V15">
+        <v>96.6201887680056</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>91.11679328808579</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>74.07407407407406</v>
+      </c>
+      <c r="AA15">
         <v>100</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
+      <c r="AB15">
+        <v>97.54322577634407</v>
+      </c>
+      <c r="AC15">
+        <v>85</v>
+      </c>
+      <c r="AD15">
+        <v>100</v>
+      </c>
+      <c r="AE15">
+        <v>99.93623007906949</v>
+      </c>
+      <c r="AF15">
+        <v>93.89956205165797</v>
+      </c>
+      <c r="AG15">
+        <v>97.56777082889739</v>
+      </c>
+      <c r="AH15">
         <v>91.11679328808579</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>77.02227765647899</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
         <v>91.11679328808579</v>
       </c>
-      <c r="J15">
-        <v>98.25350226762684</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>100</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>97.54322577634407</v>
-      </c>
-      <c r="O15">
-        <v>91.11679328808579</v>
-      </c>
-      <c r="P15">
-        <v>93.89956205165797</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>85</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>99.93623007906949</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>97.56777082889739</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>74.68265472433458</v>
-      </c>
-      <c r="AA15">
-        <v>77.02227765647899</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>96.6201887680056</v>
-      </c>
-      <c r="AG15">
-        <v>74.07407407407406</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
+      <c r="AM15">
         <v>94.99999999999999</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
       </c>
       <c r="AN15">
         <v>91.11679328808579</v>
@@ -3248,103 +3248,103 @@
         <v>0</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.3788174875850964</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>23.50683023750091</v>
+      </c>
+      <c r="V16">
+        <v>1.241734096473468</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>6.882830865164502</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>23.31527569134414</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0.3760790085516915</v>
+      </c>
+      <c r="AC16">
+        <v>13.41781515999999</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>4.022564687918848</v>
+      </c>
+      <c r="AG16">
+        <v>0.3761736422790019</v>
+      </c>
+      <c r="AH16">
         <v>6.8828308651645</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>21.38702407045631</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
         <v>6.882830865164499</v>
       </c>
-      <c r="J16">
-        <v>0.3788174875850964</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0.3760790085516915</v>
-      </c>
-      <c r="O16">
-        <v>6.882830865164502</v>
-      </c>
-      <c r="P16">
-        <v>4.022564687918848</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>13.41781515999999</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0.3761736422790019</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>23.50683023750091</v>
-      </c>
-      <c r="AA16">
-        <v>21.38702407045631</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>1.241734096473468</v>
-      </c>
-      <c r="AG16">
-        <v>23.31527569134414</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
+      <c r="AM16">
         <v>4.371793721428576</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
       </c>
       <c r="AN16">
         <v>6.882830865164499</v>
@@ -3376,19 +3376,19 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="AE17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>89</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>100</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
       <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>100</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -3501,13 +3501,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -4102,103 +4102,103 @@
         <v>0</v>
       </c>
       <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.117370449632785</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>1.098795882850504</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0.9135803999999959</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>1.109292956778979</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>1.067856040227408</v>
+      </c>
+      <c r="AG23">
+        <v>1.109572091016179</v>
+      </c>
+      <c r="AH23">
         <v>0.9135803999999997</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>100</v>
+      </c>
+      <c r="AL23">
         <v>0.9135803999999996</v>
       </c>
-      <c r="J23">
-        <v>1.117370449632785</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>1.109292956778979</v>
-      </c>
-      <c r="O23">
-        <v>0.9135803999999959</v>
-      </c>
-      <c r="P23">
-        <v>1.067856040227408</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>1.109572091016179</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>1.098795882850504</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
       <c r="AM23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AN23">
         <v>0.9135803999999996</v>

--- a/exposan/bwaise/results/sysA.xlsx
+++ b/exposan/bwaise/results/sysA.xlsx
@@ -1208,10 +1208,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.844584819260416</v>
+        <v>1.844584819260415</v>
       </c>
       <c r="K3">
-        <v>0.3227926591805352</v>
+        <v>0.3227926591805353</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-6.011984197623631</v>
+        <v>-6.01198419762363</v>
       </c>
       <c r="O3">
-        <v>-1.521792160079881</v>
+        <v>-1.52179216007988</v>
       </c>
       <c r="P3">
         <v>0.9523809523809523</v>
       </c>
       <c r="Q3">
-        <v>-1.449325866742743</v>
+        <v>-1.449325866742742</v>
       </c>
       <c r="R3">
-        <v>-32.87124355424275</v>
+        <v>-32.87124355424274</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1264,10 +1264,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.844584819260416</v>
+        <v>1.844584819260415</v>
       </c>
       <c r="K4">
-        <v>0.3227926591805352</v>
+        <v>0.3227926591805353</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1.844584819260416</v>
+        <v>1.844584819260415</v>
       </c>
       <c r="K5">
-        <v>0.3227926591805352</v>
+        <v>0.3227926591805353</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1332,16 +1332,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-7.01748556362363</v>
+        <v>-7.017485563623629</v>
       </c>
       <c r="O5">
-        <v>-1.521792160079881</v>
+        <v>-1.52179216007988</v>
       </c>
       <c r="P5">
         <v>0.863837598531476</v>
       </c>
       <c r="Q5">
-        <v>-1.314581285027432</v>
+        <v>-1.314581285027431</v>
       </c>
       <c r="R5">
         <v>-35.56613518854898</v>
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.844584819260416</v>
+        <v>1.844584819260415</v>
       </c>
       <c r="K6">
-        <v>0.3227926591805352</v>
+        <v>0.3227926591805353</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.844584819260416</v>
+        <v>1.844584819260415</v>
       </c>
       <c r="K7">
-        <v>0.3227926591805352</v>
+        <v>0.3227926591805353</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.844584819260416</v>
+        <v>1.844584819260415</v>
       </c>
       <c r="K8">
-        <v>0.3227926591805352</v>
+        <v>0.3227926591805353</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1500,19 +1500,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>-4.324627217804881</v>
+        <v>-4.324627217804879</v>
       </c>
       <c r="O8">
-        <v>-1.521792160079881</v>
+        <v>-1.52179216007988</v>
       </c>
       <c r="P8">
         <v>0.7462153966366274</v>
       </c>
       <c r="Q8">
-        <v>-1.135584740332518</v>
+        <v>-1.135584740332517</v>
       </c>
       <c r="R8">
-        <v>-39.14606608244725</v>
+        <v>-39.14606608244724</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1544,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.844584819260416</v>
+        <v>1.844584819260415</v>
       </c>
       <c r="K9">
-        <v>0.3227926591805352</v>
+        <v>0.3227926591805353</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.844584819260416</v>
+        <v>1.844584819260415</v>
       </c>
       <c r="K10">
-        <v>0.3227926591805352</v>
+        <v>0.3227926591805353</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>-1.030008834768724</v>
       </c>
       <c r="R10">
-        <v>-41.25758419372313</v>
+        <v>-41.25758419372312</v>
       </c>
     </row>
   </sheetData>
@@ -5226,7 +5226,7 @@
         <v>124</v>
       </c>
       <c r="D62">
-        <v>122.985933576331</v>
+        <v>122.9859335763309</v>
       </c>
     </row>
     <row r="65" spans="1:4">
